--- a/buildings.xlsx
+++ b/buildings.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>1 World Trade</t>
   </si>
@@ -108,13 +109,28 @@
   </si>
   <si>
     <t>WHITE</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>vp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +138,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,15 +174,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +493,7 @@
     <col min="4" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
@@ -456,16 +509,28 @@
       <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <v>213</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -476,8 +541,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -496,8 +564,20 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -516,8 +596,20 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -536,8 +628,20 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -556,8 +660,20 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -576,8 +692,20 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -596,8 +724,12 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f t="shared" ref="I3:I24" si="0">SUM(D8:H8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -616,8 +748,12 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -636,8 +772,12 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -656,8 +796,12 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -676,8 +820,20 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -696,8 +852,11 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -716,8 +875,11 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -736,8 +898,11 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -756,8 +921,11 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -776,8 +944,11 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -796,8 +967,11 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -816,8 +990,11 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -836,8 +1013,11 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -856,8 +1036,11 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -876,8 +1059,11 @@
       <c r="G22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -896,8 +1082,11 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -908,34 +1097,37 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <f>SUM(D2:D24)</f>
         <v>25</v>
       </c>
       <c r="E25" s="1">
         <f>SUM(E2:E24)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
         <v>25</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="E25:H25" si="0">SUM(H2:H24)</f>
+        <f t="shared" ref="E25:H25" si="1">SUM(H2:H24)</f>
         <v>0</v>
       </c>
     </row>
@@ -945,4 +1137,231 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="10" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>